--- a/bin/Debug/net6.0/lab1_180348.xlsx
+++ b/bin/Debug/net6.0/lab1_180348.xlsx
@@ -12,7 +12,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>C:\Users\Anna\Source\Repos\Epplus_180348\.git</t>
+  </si>
+  <si>
+    <t>C:\Users\Anna\Source\Repos\Epplus_180348\.git\COMMIT_EDITMSG</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>24 B</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>C:\Users\Anna\Source\Repos\Epplus_180348\.git\config</t>
+  </si>
+  <si>
+    <t>930 B</t>
+  </si>
+  <si>
+    <t>C:\Users\Anna\Source\Repos\Epplus_180348\.git\description</t>
+  </si>
+  <si>
+    <t>73 B</t>
+  </si>
+  <si>
+    <t>C:\Users\Anna\Source\Repos\Epplus_180348\.git\FETCH_HEAD</t>
+  </si>
+  <si>
+    <t>104 B</t>
+  </si>
+  <si>
+    <t>C:\Users\Anna\Source\Repos\Epplus_180348\.git\HEAD</t>
+  </si>
+  <si>
+    <t>23 B</t>
+  </si>
+  <si>
+    <t>C:\Users\Anna\Source\Repos\Epplus_180348\.git\index</t>
+  </si>
+  <si>
+    <t>7 KB</t>
+  </si>
+  <si>
+    <t>C:\Users\Anna\Source\Repos\Epplus_180348\.git\ms-persist.xml</t>
+  </si>
+  <si>
+    <t>.xml</t>
+  </si>
+  <si>
+    <t>195 B</t>
+  </si>
   <si>
     <t>C:\Users\Anna\Source\Repos\Epplus_180348\.vs</t>
   </si>
@@ -26,16 +80,40 @@
     <t>C:\Users\Anna\Source\Repos\Epplus_180348\obj\Epplus_180348.csproj.nuget.dgspec.json</t>
   </si>
   <si>
+    <t>.json</t>
+  </si>
+  <si>
+    <t>2 KB</t>
+  </si>
+  <si>
     <t>C:\Users\Anna\Source\Repos\Epplus_180348\obj\Epplus_180348.csproj.nuget.g.props</t>
   </si>
   <si>
+    <t>.props</t>
+  </si>
+  <si>
+    <t>1 KB</t>
+  </si>
+  <si>
     <t>C:\Users\Anna\Source\Repos\Epplus_180348\obj\Epplus_180348.csproj.nuget.g.targets</t>
   </si>
   <si>
+    <t>.targets</t>
+  </si>
+  <si>
+    <t>150 B</t>
+  </si>
+  <si>
     <t>C:\Users\Anna\Source\Repos\Epplus_180348\obj\project.assets.json</t>
   </si>
   <si>
+    <t>36 KB</t>
+  </si>
+  <si>
     <t>C:\Users\Anna\Source\Repos\Epplus_180348\obj\project.nuget.cache</t>
+  </si>
+  <si>
+    <t>.cache</t>
   </si>
 </sst>
 </file>
@@ -81,7 +159,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -96,35 +174,183 @@
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/net6.0/lab1_180348.xlsx
+++ b/bin/Debug/net6.0/lab1_180348.xlsx
@@ -23,7 +23,7 @@
     <t/>
   </si>
   <si>
-    <t>24 B</t>
+    <t>10 B</t>
   </si>
   <si>
     <t>Archive</t>
@@ -32,7 +32,7 @@
     <t>C:\Users\Anna\Source\Repos\Epplus_180348\.git\config</t>
   </si>
   <si>
-    <t>930 B</t>
+    <t>996 B</t>
   </si>
   <si>
     <t>C:\Users\Anna\Source\Repos\Epplus_180348\.git\description</t>
@@ -65,7 +65,7 @@
     <t>.xml</t>
   </si>
   <si>
-    <t>195 B</t>
+    <t>169 B</t>
   </si>
   <si>
     <t>C:\Users\Anna\Source\Repos\Epplus_180348\.vs</t>
@@ -165,12 +165,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" outlineLevel="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" outlineLevel="2" collapsed="1" hidden="1">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
@@ -184,7 +184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" outlineLevel="2" collapsed="1" hidden="1">
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
@@ -198,7 +198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" outlineLevel="2" collapsed="1" hidden="1">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
@@ -212,7 +212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" outlineLevel="2" collapsed="1" hidden="1">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -226,7 +226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" outlineLevel="2" collapsed="1" hidden="1">
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
@@ -240,7 +240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" outlineLevel="2" collapsed="1" hidden="1">
       <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
@@ -254,7 +254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" outlineLevel="2" collapsed="1" hidden="1">
       <c r="A8" s="0" t="s">
         <v>15</v>
       </c>
@@ -268,22 +268,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" outlineLevel="1">
       <c r="A9" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" outlineLevel="1">
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" outlineLevel="1">
       <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" outlineLevel="2" collapsed="1" hidden="1">
       <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
@@ -297,7 +297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" outlineLevel="2" collapsed="1" hidden="1">
       <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
@@ -311,7 +311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" outlineLevel="2" collapsed="1" hidden="1">
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
@@ -325,7 +325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" outlineLevel="2" collapsed="1" hidden="1">
       <c r="A15" s="0" t="s">
         <v>30</v>
       </c>
@@ -339,7 +339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" outlineLevel="2" collapsed="1" hidden="1">
       <c r="A16" s="0" t="s">
         <v>32</v>
       </c>

--- a/bin/Debug/net6.0/lab1_180348.xlsx
+++ b/bin/Debug/net6.0/lab1_180348.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Struktura katalogu" sheetId="1" r:id="rId1"/>
+    <sheet name="Statystyki" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -23,7 +24,7 @@
     <t/>
   </si>
   <si>
-    <t>10 B</t>
+    <t>6 B</t>
   </si>
   <si>
     <t>Archive</t>
@@ -356,4 +357,67 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/bin/Debug/net6.0/lab1_180348.xlsx
+++ b/bin/Debug/net6.0/lab1_180348.xlsx
@@ -158,6 +158,154 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Procent rozszerzeń ilościowo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="20"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Statystyki!D1:D6</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statystyki!E1:E6</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr anchorCtr="1" anchor="ctr" wrap="square" vert="horz" vertOverflow="ellipsis" spcFirstLastPara="1" rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="PieChart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:D16"/>
@@ -361,7 +509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -371,53 +519,168 @@
       <c r="A1" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="0">
+        <v>37731</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="0">
+        <v>2</v>
+      </c>
+      <c r="F1" s="0">
+        <v>40131</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0">
+        <v>7500</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0">
+        <v>8673</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="0">
+        <v>2855</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0">
+        <v>2855</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="B4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="0">
+        <v>2400</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="0">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0">
+        <v>1300</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="B5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1300</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="0">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0">
+        <v>169</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0">
+        <v>996</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0">
+        <v>150</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0">
+        <v>169</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0">
+        <v>150</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="B9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0">
+        <v>104</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="B10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/bin/Debug/net6.0/lab1_180348.xlsx
+++ b/bin/Debug/net6.0/lab1_180348.xlsx
@@ -24,7 +24,7 @@
     <t/>
   </si>
   <si>
-    <t>6 B</t>
+    <t>20 B</t>
   </si>
   <si>
     <t>Archive</t>
@@ -271,24 +271,137 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Procent rozszerzeń wg rozmiaru</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="20"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Statystyki!D1:D6</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statystyki!F1:F6</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr anchorCtr="1" anchor="ctr" wrap="square" vert="horz" vertOverflow="ellipsis" spcFirstLastPara="1" rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="PieChart"/>
+        <xdr:cNvPr id="2" name="Extensions Amount"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -298,6 +411,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="File Size By Extensions"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
